--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40B8CC-6556-44DA-A185-CB7C0E351512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28461F4-83EF-44FD-8D64-63DE96703BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51DE4895-67D3-4773-97BA-6CEB544CFA33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>level_id</t>
   </si>
@@ -61,13 +61,25 @@
   </si>
   <si>
     <t>Pitt</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>coba11</t>
+  </si>
+  <si>
+    <t>coba12</t>
+  </si>
+  <si>
+    <t>coba13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +91,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A62BDD7-D229-4449-A54E-D1AFE1CE7C80}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +459,7 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +469,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -462,8 +483,11 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>14</v>
       </c>
@@ -473,8 +497,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -484,8 +511,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>